--- a/t1_confection/A1_Outputs/A-O_Parametrization_COMPLETED.xlsx
+++ b/t1_confection/A1_Outputs/A-O_Parametrization_COMPLETED.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="334">
   <si>
     <t>Tech.Type</t>
   </si>
@@ -866,9 +866,6 @@
     <t>Interpolate to stated end value from projection parameter</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Ask RDM folder</t>
   </si>
   <si>
@@ -9088,7 +9085,7 @@
         <v>234.55</v>
       </c>
       <c r="AP22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -9466,7 +9463,7 @@
         <v>8.16</v>
       </c>
       <c r="AP25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -9854,7 +9851,7 @@
         <v>4.2731</v>
       </c>
       <c r="AP33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:42">
@@ -13008,54 +13005,6 @@
       <c r="Y70">
         <v>0.8257</v>
       </c>
-      <c r="Z70">
-        <v>0.8257</v>
-      </c>
-      <c r="AA70">
-        <v>0.8257</v>
-      </c>
-      <c r="AB70">
-        <v>0.8257</v>
-      </c>
-      <c r="AC70">
-        <v>0.8257</v>
-      </c>
-      <c r="AD70">
-        <v>0.8257</v>
-      </c>
-      <c r="AE70">
-        <v>0.8257</v>
-      </c>
-      <c r="AF70">
-        <v>0.8257</v>
-      </c>
-      <c r="AG70">
-        <v>0.8257</v>
-      </c>
-      <c r="AH70">
-        <v>0.8257</v>
-      </c>
-      <c r="AI70">
-        <v>0.8257</v>
-      </c>
-      <c r="AJ70">
-        <v>0.8257</v>
-      </c>
-      <c r="AK70">
-        <v>0.8257</v>
-      </c>
-      <c r="AL70">
-        <v>0.8257</v>
-      </c>
-      <c r="AM70">
-        <v>0.8257</v>
-      </c>
-      <c r="AN70">
-        <v>0.8257</v>
-      </c>
-      <c r="AO70">
-        <v>0.8257</v>
-      </c>
     </row>
     <row r="71" spans="1:41">
       <c r="A71">
@@ -14039,66 +13988,6 @@
       <c r="U80">
         <v>0.5044999999999999</v>
       </c>
-      <c r="V80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="W80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="X80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="Y80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="Z80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AA80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AB80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AD80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AE80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AF80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AG80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AH80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AI80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AJ80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AK80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AL80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AM80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AN80">
-        <v>0.5044999999999999</v>
-      </c>
-      <c r="AO80">
-        <v>0.5044999999999999</v>
-      </c>
     </row>
     <row r="81" spans="1:42">
       <c r="A81">
@@ -14350,7 +14239,7 @@
         <v>827.7034</v>
       </c>
       <c r="AP82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:42">
@@ -14478,7 +14367,7 @@
         <v>36.3964</v>
       </c>
       <c r="AP83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:42">
@@ -15399,7 +15288,7 @@
         <v>624.0717</v>
       </c>
       <c r="AP92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:42">
@@ -15527,7 +15416,7 @@
         <v>22.3789</v>
       </c>
       <c r="AP93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:42">
@@ -16349,7 +16238,7 @@
         <v>781.4673</v>
       </c>
       <c r="AP102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:42">
@@ -16477,7 +16366,7 @@
         <v>25.8541</v>
       </c>
       <c r="AP103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:42">
@@ -16914,9 +16803,6 @@
       <c r="E109" t="s">
         <v>267</v>
       </c>
-      <c r="G109" t="s">
-        <v>281</v>
-      </c>
       <c r="H109">
         <v>0</v>
       </c>
@@ -17296,7 +17182,7 @@
         <v>1036.4565</v>
       </c>
       <c r="AP112" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="1:42">
@@ -17424,7 +17310,7 @@
         <v>42.1143</v>
       </c>
       <c r="AP113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:42">
@@ -17861,9 +17747,6 @@
       <c r="E119" t="s">
         <v>267</v>
       </c>
-      <c r="G119" t="s">
-        <v>281</v>
-      </c>
       <c r="H119">
         <v>0</v>
       </c>
@@ -18802,9 +18685,6 @@
       <c r="E129" t="s">
         <v>267</v>
       </c>
-      <c r="G129" t="s">
-        <v>281</v>
-      </c>
       <c r="H129">
         <v>0</v>
       </c>
@@ -18934,7 +18814,7 @@
         <v>0.4</v>
       </c>
       <c r="AP130" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:42">
@@ -19746,9 +19626,6 @@
       <c r="E139" t="s">
         <v>267</v>
       </c>
-      <c r="G139" t="s">
-        <v>281</v>
-      </c>
       <c r="H139">
         <v>0</v>
       </c>
@@ -20686,9 +20563,6 @@
       </c>
       <c r="E149" t="s">
         <v>267</v>
-      </c>
-      <c r="G149" t="s">
-        <v>281</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -21670,7 +21544,7 @@
         <v>29.24</v>
       </c>
       <c r="AP2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -22045,7 +21919,7 @@
         <v>29.24</v>
       </c>
       <c r="AP5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -22420,7 +22294,7 @@
         <v>406.038</v>
       </c>
       <c r="AP8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -22795,7 +22669,7 @@
         <v>37.5206</v>
       </c>
       <c r="AP11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -24370,7 +24244,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -24393,7 +24267,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -24416,7 +24290,7 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -24439,7 +24313,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -24462,7 +24336,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -24485,7 +24359,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -24508,7 +24382,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -24531,7 +24405,7 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -24554,7 +24428,7 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -24577,7 +24451,7 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -24600,7 +24474,7 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -24623,7 +24497,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -24646,7 +24520,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -24669,7 +24543,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -24692,7 +24566,7 @@
         <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -24715,7 +24589,7 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -24738,7 +24612,7 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -24761,7 +24635,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -24784,7 +24658,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -24901,7 +24775,7 @@
         <v>160.0337</v>
       </c>
       <c r="AP20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -24912,7 +24786,7 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -25029,7 +24903,7 @@
         <v>3.2007</v>
       </c>
       <c r="AP21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -25040,7 +24914,7 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -25162,7 +25036,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -25185,7 +25059,7 @@
         <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -25208,7 +25082,7 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -25231,7 +25105,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -25254,7 +25128,7 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -25277,7 +25151,7 @@
         <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -25300,7 +25174,7 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -25417,7 +25291,7 @@
         <v>35.0753</v>
       </c>
       <c r="AP29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:42">
@@ -25428,7 +25302,7 @@
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -25545,7 +25419,7 @@
         <v>0.7015</v>
       </c>
       <c r="AP30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:42">
@@ -25556,7 +25430,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -25678,7 +25552,7 @@
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -25701,7 +25575,7 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -25724,7 +25598,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -25747,7 +25621,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -25770,7 +25644,7 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -25793,7 +25667,7 @@
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -25816,7 +25690,7 @@
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -25839,7 +25713,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -25862,7 +25736,7 @@
         <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -25885,7 +25759,7 @@
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -25908,7 +25782,7 @@
         <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -25931,7 +25805,7 @@
         <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -25954,7 +25828,7 @@
         <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -25977,7 +25851,7 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -26000,7 +25874,7 @@
         <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -26023,7 +25897,7 @@
         <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -26046,7 +25920,7 @@
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -26069,7 +25943,7 @@
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -26092,7 +25966,7 @@
         <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -26209,7 +26083,7 @@
         <v>35.0753</v>
       </c>
       <c r="AP50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:42">
@@ -26220,7 +26094,7 @@
         <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -26337,7 +26211,7 @@
         <v>0.7015</v>
       </c>
       <c r="AP51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:42">
@@ -26348,7 +26222,7 @@
         <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -26492,7 +26366,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>246</v>
@@ -26623,10 +26497,10 @@
         <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H2" t="s">
         <v>278</v>
@@ -26751,10 +26625,10 @@
         <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H3" t="s">
         <v>279</v>
@@ -26879,10 +26753,10 @@
         <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H4" t="s">
         <v>279</v>
@@ -27036,97 +26910,97 @@
         <v>1.5263</v>
       </c>
       <c r="L6">
-        <v>1.1183</v>
+        <v>1.0732</v>
       </c>
       <c r="M6">
-        <v>1.2928</v>
+        <v>1.1569</v>
       </c>
       <c r="N6">
-        <v>1.4841</v>
+        <v>1.2407</v>
       </c>
       <c r="O6">
-        <v>1.5249</v>
+        <v>1.1453</v>
       </c>
       <c r="P6">
-        <v>1.5668</v>
+        <v>1.0499</v>
       </c>
       <c r="Q6">
-        <v>1.6096</v>
+        <v>0.9544</v>
       </c>
       <c r="R6">
-        <v>1.6534</v>
+        <v>0.859</v>
       </c>
       <c r="S6">
-        <v>1.6982</v>
+        <v>0.7635</v>
       </c>
       <c r="T6">
-        <v>1.744</v>
+        <v>0.6681</v>
       </c>
       <c r="U6">
-        <v>1.7907</v>
+        <v>0.5726</v>
       </c>
       <c r="V6">
-        <v>1.8385</v>
+        <v>0.4772</v>
       </c>
       <c r="W6">
-        <v>1.8873</v>
+        <v>0.3818</v>
       </c>
       <c r="X6">
-        <v>1.9372</v>
+        <v>0.2863</v>
       </c>
       <c r="Y6">
-        <v>1.988</v>
+        <v>0.1909</v>
       </c>
       <c r="Z6">
-        <v>2.04</v>
+        <v>0.0954</v>
       </c>
       <c r="AA6">
-        <v>2.0931</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>2.1472</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.2025</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2.2589</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.3164</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.3751</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.435</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>2.4961</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>2.5583</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2.6218</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.6864</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.7524</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.8195</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>2.8879</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>2.9576</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>3.0286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -27146,10 +27020,10 @@
         <v>260</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" t="s">
         <v>278</v>
@@ -27274,10 +27148,10 @@
         <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H8" t="s">
         <v>279</v>
@@ -27402,10 +27276,10 @@
         <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H9" t="s">
         <v>279</v>
@@ -27565,91 +27439,91 @@
         <v>2.297</v>
       </c>
       <c r="N11">
-        <v>2.4736</v>
+        <v>2.4635</v>
       </c>
       <c r="O11">
-        <v>2.5415</v>
+        <v>2.274</v>
       </c>
       <c r="P11">
-        <v>2.6114</v>
+        <v>2.0845</v>
       </c>
       <c r="Q11">
-        <v>2.6828</v>
+        <v>1.895</v>
       </c>
       <c r="R11">
-        <v>2.7558</v>
+        <v>1.7055</v>
       </c>
       <c r="S11">
-        <v>2.8304</v>
+        <v>1.516</v>
       </c>
       <c r="T11">
-        <v>2.9067</v>
+        <v>1.3265</v>
       </c>
       <c r="U11">
-        <v>2.9846</v>
+        <v>1.137</v>
       </c>
       <c r="V11">
-        <v>3.0642</v>
+        <v>0.9475</v>
       </c>
       <c r="W11">
-        <v>3.1455</v>
+        <v>0.758</v>
       </c>
       <c r="X11">
-        <v>3.2286</v>
+        <v>0.5685</v>
       </c>
       <c r="Y11">
-        <v>3.3134</v>
+        <v>0.379</v>
       </c>
       <c r="Z11">
-        <v>3.4</v>
+        <v>0.1895</v>
       </c>
       <c r="AA11">
-        <v>3.4884</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>3.5788</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>3.6708</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>3.7648</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>3.8608</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>3.9586</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>4.0584</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>4.1601</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>4.2638</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>4.3696</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>4.4774</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>4.5872</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>4.6992</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>4.8132</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>4.9294</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>5.0476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -27669,10 +27543,10 @@
         <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H12" t="s">
         <v>278</v>
@@ -27797,10 +27671,10 @@
         <v>261</v>
       </c>
       <c r="F13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H13" t="s">
         <v>279</v>
@@ -27925,10 +27799,10 @@
         <v>263</v>
       </c>
       <c r="F14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -27991,13 +27865,13 @@
         <v>260</v>
       </c>
       <c r="F17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -28119,10 +27993,10 @@
         <v>261</v>
       </c>
       <c r="F18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s">
         <v>279</v>
@@ -28247,10 +28121,10 @@
         <v>263</v>
       </c>
       <c r="F19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -28278,102 +28152,6 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.0175</v>
-      </c>
-      <c r="P20">
-        <v>0.027</v>
-      </c>
-      <c r="Q20">
-        <v>0.037</v>
-      </c>
-      <c r="R20">
-        <v>0.0475</v>
-      </c>
-      <c r="S20">
-        <v>0.0586</v>
-      </c>
-      <c r="T20">
-        <v>0.0702</v>
-      </c>
-      <c r="U20">
-        <v>0.0823</v>
-      </c>
-      <c r="V20">
-        <v>0.0951</v>
-      </c>
-      <c r="W20">
-        <v>0.1085</v>
-      </c>
-      <c r="X20">
-        <v>0.1225</v>
-      </c>
-      <c r="Y20">
-        <v>0.1371</v>
-      </c>
-      <c r="Z20">
-        <v>0.1524</v>
-      </c>
-      <c r="AA20">
-        <v>0.1684</v>
-      </c>
-      <c r="AB20">
-        <v>0.1851</v>
-      </c>
-      <c r="AC20">
-        <v>0.2025</v>
-      </c>
-      <c r="AD20">
-        <v>0.2207</v>
-      </c>
-      <c r="AE20">
-        <v>0.2396</v>
-      </c>
-      <c r="AF20">
-        <v>0.2594</v>
-      </c>
-      <c r="AG20">
-        <v>0.2799</v>
-      </c>
-      <c r="AH20">
-        <v>0.3012</v>
-      </c>
-      <c r="AI20">
-        <v>0.3235</v>
-      </c>
-      <c r="AJ20">
-        <v>0.3466</v>
-      </c>
-      <c r="AK20">
-        <v>0.3705</v>
-      </c>
-      <c r="AL20">
-        <v>0.3955</v>
-      </c>
-      <c r="AM20">
-        <v>0.4213</v>
-      </c>
-      <c r="AN20">
-        <v>0.4481</v>
-      </c>
-      <c r="AO20">
-        <v>0.4759</v>
-      </c>
-      <c r="AP20">
-        <v>0.5048</v>
-      </c>
     </row>
     <row r="21" spans="1:42">
       <c r="A21">
@@ -28397,102 +28175,6 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.0175</v>
-      </c>
-      <c r="P21">
-        <v>0.027</v>
-      </c>
-      <c r="Q21">
-        <v>0.037</v>
-      </c>
-      <c r="R21">
-        <v>0.0475</v>
-      </c>
-      <c r="S21">
-        <v>0.0586</v>
-      </c>
-      <c r="T21">
-        <v>0.0702</v>
-      </c>
-      <c r="U21">
-        <v>0.0823</v>
-      </c>
-      <c r="V21">
-        <v>0.0951</v>
-      </c>
-      <c r="W21">
-        <v>0.1085</v>
-      </c>
-      <c r="X21">
-        <v>0.1225</v>
-      </c>
-      <c r="Y21">
-        <v>0.1371</v>
-      </c>
-      <c r="Z21">
-        <v>0.1524</v>
-      </c>
-      <c r="AA21">
-        <v>0.1684</v>
-      </c>
-      <c r="AB21">
-        <v>0.1851</v>
-      </c>
-      <c r="AC21">
-        <v>0.2025</v>
-      </c>
-      <c r="AD21">
-        <v>0.2207</v>
-      </c>
-      <c r="AE21">
-        <v>0.2396</v>
-      </c>
-      <c r="AF21">
-        <v>0.2594</v>
-      </c>
-      <c r="AG21">
-        <v>0.2799</v>
-      </c>
-      <c r="AH21">
-        <v>0.3012</v>
-      </c>
-      <c r="AI21">
-        <v>0.3235</v>
-      </c>
-      <c r="AJ21">
-        <v>0.3466</v>
-      </c>
-      <c r="AK21">
-        <v>0.3705</v>
-      </c>
-      <c r="AL21">
-        <v>0.3955</v>
-      </c>
-      <c r="AM21">
-        <v>0.4213</v>
-      </c>
-      <c r="AN21">
-        <v>0.4481</v>
-      </c>
-      <c r="AO21">
-        <v>0.4759</v>
-      </c>
-      <c r="AP21">
-        <v>0.5048</v>
-      </c>
     </row>
     <row r="22" spans="1:42">
       <c r="A22">
@@ -28511,10 +28193,10 @@
         <v>260</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H22" t="s">
         <v>278</v>
@@ -28639,10 +28321,10 @@
         <v>261</v>
       </c>
       <c r="F23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
         <v>279</v>
@@ -28767,10 +28449,10 @@
         <v>263</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -28833,13 +28515,13 @@
         <v>260</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -28961,10 +28643,10 @@
         <v>261</v>
       </c>
       <c r="F28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s">
         <v>279</v>
@@ -29089,10 +28771,10 @@
         <v>263</v>
       </c>
       <c r="F29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -29155,10 +28837,10 @@
         <v>260</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H32" t="s">
         <v>278</v>
@@ -29283,10 +28965,10 @@
         <v>261</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H33" t="s">
         <v>279</v>
@@ -29411,10 +29093,10 @@
         <v>263</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H34" t="s">
         <v>279</v>
@@ -29574,91 +29256,91 @@
         <v>6.8493</v>
       </c>
       <c r="N36">
-        <v>7.8482</v>
+        <v>7.3458</v>
       </c>
       <c r="O36">
-        <v>8.063800000000001</v>
+        <v>6.7808</v>
       </c>
       <c r="P36">
-        <v>8.285399999999999</v>
+        <v>6.2157</v>
       </c>
       <c r="Q36">
-        <v>8.511900000000001</v>
+        <v>5.6506</v>
       </c>
       <c r="R36">
-        <v>8.743600000000001</v>
+        <v>5.0856</v>
       </c>
       <c r="S36">
-        <v>8.9803</v>
+        <v>4.5205</v>
       </c>
       <c r="T36">
-        <v>9.222300000000001</v>
+        <v>3.9555</v>
       </c>
       <c r="U36">
-        <v>9.4695</v>
+        <v>3.3904</v>
       </c>
       <c r="V36">
-        <v>9.722200000000001</v>
+        <v>2.8253</v>
       </c>
       <c r="W36">
-        <v>9.9802</v>
+        <v>2.2603</v>
       </c>
       <c r="X36">
-        <v>10.2438</v>
+        <v>1.6952</v>
       </c>
       <c r="Y36">
-        <v>10.513</v>
+        <v>1.1301</v>
       </c>
       <c r="Z36">
-        <v>10.7878</v>
+        <v>0.5651</v>
       </c>
       <c r="AA36">
-        <v>11.0684</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>11.3547</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>11.647</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>11.9453</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>12.2495</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>12.5599</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>12.8765</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>13.1993</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>13.5285</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>13.864</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>14.206</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>14.5546</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>14.9098</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>15.2715</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>15.6401</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>16.0154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:42">
@@ -29678,13 +29360,13 @@
         <v>260</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -29806,10 +29488,10 @@
         <v>261</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H38" t="s">
         <v>279</v>
@@ -29934,10 +29616,10 @@
         <v>263</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -29965,102 +29647,6 @@
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0.0169</v>
-      </c>
-      <c r="O40">
-        <v>0.0348</v>
-      </c>
-      <c r="P40">
-        <v>0.0536</v>
-      </c>
-      <c r="Q40">
-        <v>0.07340000000000001</v>
-      </c>
-      <c r="R40">
-        <v>0.09420000000000001</v>
-      </c>
-      <c r="S40">
-        <v>0.1161</v>
-      </c>
-      <c r="T40">
-        <v>0.1391</v>
-      </c>
-      <c r="U40">
-        <v>0.1633</v>
-      </c>
-      <c r="V40">
-        <v>0.1886</v>
-      </c>
-      <c r="W40">
-        <v>0.2151</v>
-      </c>
-      <c r="X40">
-        <v>0.2428</v>
-      </c>
-      <c r="Y40">
-        <v>0.2719</v>
-      </c>
-      <c r="Z40">
-        <v>0.3022</v>
-      </c>
-      <c r="AA40">
-        <v>0.334</v>
-      </c>
-      <c r="AB40">
-        <v>0.3671</v>
-      </c>
-      <c r="AC40">
-        <v>0.4016</v>
-      </c>
-      <c r="AD40">
-        <v>0.4377</v>
-      </c>
-      <c r="AE40">
-        <v>0.4752</v>
-      </c>
-      <c r="AF40">
-        <v>0.5143</v>
-      </c>
-      <c r="AG40">
-        <v>0.555</v>
-      </c>
-      <c r="AH40">
-        <v>0.5974</v>
-      </c>
-      <c r="AI40">
-        <v>0.6414</v>
-      </c>
-      <c r="AJ40">
-        <v>0.6872</v>
-      </c>
-      <c r="AK40">
-        <v>0.7348</v>
-      </c>
-      <c r="AL40">
-        <v>0.7842</v>
-      </c>
-      <c r="AM40">
-        <v>0.8355</v>
-      </c>
-      <c r="AN40">
-        <v>0.8885999999999999</v>
-      </c>
-      <c r="AO40">
-        <v>0.9438</v>
-      </c>
-      <c r="AP40">
-        <v>1.001</v>
-      </c>
     </row>
     <row r="41" spans="1:42">
       <c r="A41">
@@ -30084,102 +29670,6 @@
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0.0169</v>
-      </c>
-      <c r="O41">
-        <v>0.0348</v>
-      </c>
-      <c r="P41">
-        <v>0.0536</v>
-      </c>
-      <c r="Q41">
-        <v>0.07340000000000001</v>
-      </c>
-      <c r="R41">
-        <v>0.09420000000000001</v>
-      </c>
-      <c r="S41">
-        <v>0.1161</v>
-      </c>
-      <c r="T41">
-        <v>0.1391</v>
-      </c>
-      <c r="U41">
-        <v>0.1633</v>
-      </c>
-      <c r="V41">
-        <v>0.1886</v>
-      </c>
-      <c r="W41">
-        <v>0.2151</v>
-      </c>
-      <c r="X41">
-        <v>0.2428</v>
-      </c>
-      <c r="Y41">
-        <v>0.2719</v>
-      </c>
-      <c r="Z41">
-        <v>0.3022</v>
-      </c>
-      <c r="AA41">
-        <v>0.334</v>
-      </c>
-      <c r="AB41">
-        <v>0.3671</v>
-      </c>
-      <c r="AC41">
-        <v>0.4016</v>
-      </c>
-      <c r="AD41">
-        <v>0.4377</v>
-      </c>
-      <c r="AE41">
-        <v>0.4752</v>
-      </c>
-      <c r="AF41">
-        <v>0.5143</v>
-      </c>
-      <c r="AG41">
-        <v>0.555</v>
-      </c>
-      <c r="AH41">
-        <v>0.5974</v>
-      </c>
-      <c r="AI41">
-        <v>0.6414</v>
-      </c>
-      <c r="AJ41">
-        <v>0.6872</v>
-      </c>
-      <c r="AK41">
-        <v>0.7348</v>
-      </c>
-      <c r="AL41">
-        <v>0.7842</v>
-      </c>
-      <c r="AM41">
-        <v>0.8355</v>
-      </c>
-      <c r="AN41">
-        <v>0.8885999999999999</v>
-      </c>
-      <c r="AO41">
-        <v>0.9438</v>
-      </c>
-      <c r="AP41">
-        <v>1.001</v>
-      </c>
     </row>
     <row r="42" spans="1:42">
       <c r="A42">
@@ -30198,13 +29688,13 @@
         <v>260</v>
       </c>
       <c r="F42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -30326,10 +29816,10 @@
         <v>261</v>
       </c>
       <c r="F43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H43" t="s">
         <v>279</v>
@@ -30454,10 +29944,10 @@
         <v>263</v>
       </c>
       <c r="F44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -30520,10 +30010,10 @@
         <v>260</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H47" t="s">
         <v>278</v>
@@ -30648,10 +30138,10 @@
         <v>261</v>
       </c>
       <c r="F48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H48" t="s">
         <v>279</v>
@@ -30776,10 +30266,10 @@
         <v>263</v>
       </c>
       <c r="F49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H49" t="s">
         <v>279</v>
@@ -30930,100 +30420,100 @@
         <v>3.2712</v>
       </c>
       <c r="K51">
-        <v>3.174</v>
+        <v>2.8039</v>
       </c>
       <c r="L51">
-        <v>2.3932</v>
+        <v>1.7525</v>
       </c>
       <c r="M51">
-        <v>2.7666</v>
+        <v>1.6193</v>
       </c>
       <c r="N51">
-        <v>3.176</v>
+        <v>1.4027</v>
       </c>
       <c r="O51">
-        <v>3.2632</v>
+        <v>0.9351</v>
       </c>
       <c r="P51">
-        <v>3.3529</v>
+        <v>0.4676</v>
       </c>
       <c r="Q51">
-        <v>3.4447</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>3.5384</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>3.6342</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>3.7322</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>3.8322</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>3.9344</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>4.0388</v>
+        <v>0</v>
       </c>
       <c r="X51">
-        <v>4.1455</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>4.2545</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>4.3656</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>4.4792</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>4.5951</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>4.7133</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>4.8341</v>
+        <v>0</v>
       </c>
       <c r="AE51">
-        <v>4.9572</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>5.0828</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>5.2109</v>
+        <v>0</v>
       </c>
       <c r="AH51">
-        <v>5.3416</v>
+        <v>0</v>
       </c>
       <c r="AI51">
-        <v>5.4748</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
-        <v>5.6105</v>
+        <v>0</v>
       </c>
       <c r="AK51">
-        <v>5.7489</v>
+        <v>0</v>
       </c>
       <c r="AL51">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="AM51">
-        <v>6.0337</v>
+        <v>0</v>
       </c>
       <c r="AN51">
-        <v>6.1801</v>
+        <v>0</v>
       </c>
       <c r="AO51">
-        <v>6.3293</v>
+        <v>0</v>
       </c>
       <c r="AP51">
-        <v>6.4812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:43">
@@ -31043,10 +30533,10 @@
         <v>260</v>
       </c>
       <c r="F52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H52" t="s">
         <v>278</v>
@@ -31171,10 +30661,10 @@
         <v>261</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H53" t="s">
         <v>279</v>
@@ -31299,10 +30789,10 @@
         <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -31365,10 +30855,10 @@
         <v>260</v>
       </c>
       <c r="F57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H57" t="s">
         <v>278</v>
@@ -31476,7 +30966,7 @@
         <v>1627.4182</v>
       </c>
       <c r="AQ57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -31496,10 +30986,10 @@
         <v>261</v>
       </c>
       <c r="F58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H58" t="s">
         <v>279</v>
@@ -31624,10 +31114,10 @@
         <v>263</v>
       </c>
       <c r="F59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H59" t="s">
         <v>279</v>
@@ -31778,100 +31268,100 @@
         <v>0.4351</v>
       </c>
       <c r="K61">
-        <v>0.4221</v>
+        <v>0.404</v>
       </c>
       <c r="L61">
-        <v>0.3183</v>
+        <v>0.2797</v>
       </c>
       <c r="M61">
-        <v>0.3679</v>
+        <v>0.2961</v>
       </c>
       <c r="N61">
-        <v>0.4224</v>
+        <v>0.311</v>
       </c>
       <c r="O61">
-        <v>0.434</v>
+        <v>0.2799</v>
       </c>
       <c r="P61">
-        <v>0.4458</v>
+        <v>0.2488</v>
       </c>
       <c r="Q61">
-        <v>0.4581</v>
+        <v>0.2177</v>
       </c>
       <c r="R61">
-        <v>0.4705</v>
+        <v>0.1866</v>
       </c>
       <c r="S61">
-        <v>0.4833</v>
+        <v>0.1555</v>
       </c>
       <c r="T61">
-        <v>0.4963</v>
+        <v>0.1244</v>
       </c>
       <c r="U61">
-        <v>0.5096000000000001</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="V61">
-        <v>0.5232</v>
+        <v>0.0622</v>
       </c>
       <c r="W61">
-        <v>0.537</v>
+        <v>0.0311</v>
       </c>
       <c r="X61">
-        <v>0.5513</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0.5657</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0.5805</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.5956</v>
+        <v>0</v>
       </c>
       <c r="AB61">
-        <v>0.611</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.6268</v>
+        <v>0</v>
       </c>
       <c r="AD61">
-        <v>0.6429</v>
+        <v>0</v>
       </c>
       <c r="AE61">
-        <v>0.6592</v>
+        <v>0</v>
       </c>
       <c r="AF61">
-        <v>0.6758999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG61">
-        <v>0.6929</v>
+        <v>0</v>
       </c>
       <c r="AH61">
-        <v>0.7103</v>
+        <v>0</v>
       </c>
       <c r="AI61">
-        <v>0.728</v>
+        <v>0</v>
       </c>
       <c r="AJ61">
-        <v>0.746</v>
+        <v>0</v>
       </c>
       <c r="AK61">
-        <v>0.7645</v>
+        <v>0</v>
       </c>
       <c r="AL61">
-        <v>0.7833</v>
+        <v>0</v>
       </c>
       <c r="AM61">
-        <v>0.8024</v>
+        <v>0</v>
       </c>
       <c r="AN61">
-        <v>0.8218</v>
+        <v>0</v>
       </c>
       <c r="AO61">
-        <v>0.8417</v>
+        <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.8618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -31891,10 +31381,10 @@
         <v>260</v>
       </c>
       <c r="F62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H62" t="s">
         <v>278</v>
@@ -32019,10 +31509,10 @@
         <v>261</v>
       </c>
       <c r="F63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H63" t="s">
         <v>279</v>
@@ -32147,10 +31637,10 @@
         <v>263</v>
       </c>
       <c r="F64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -32213,13 +31703,13 @@
         <v>260</v>
       </c>
       <c r="F67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -32341,10 +31831,10 @@
         <v>261</v>
       </c>
       <c r="F68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G68" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H68" t="s">
         <v>279</v>
@@ -32469,10 +31959,10 @@
         <v>263</v>
       </c>
       <c r="F69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -32535,13 +32025,13 @@
         <v>260</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -32663,10 +32153,10 @@
         <v>261</v>
       </c>
       <c r="F73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H73" t="s">
         <v>279</v>
@@ -32791,10 +32281,10 @@
         <v>263</v>
       </c>
       <c r="F74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -32857,13 +32347,13 @@
         <v>260</v>
       </c>
       <c r="F77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -32985,10 +32475,10 @@
         <v>261</v>
       </c>
       <c r="F78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H78" t="s">
         <v>279</v>
@@ -33113,10 +32603,10 @@
         <v>263</v>
       </c>
       <c r="F79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -33179,10 +32669,10 @@
         <v>260</v>
       </c>
       <c r="F82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H82" t="s">
         <v>278</v>
@@ -33290,7 +32780,7 @@
         <v>601.1856</v>
       </c>
       <c r="AQ82" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:43">
@@ -33310,10 +32800,10 @@
         <v>261</v>
       </c>
       <c r="F83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H83" t="s">
         <v>279</v>
@@ -33438,10 +32928,10 @@
         <v>263</v>
       </c>
       <c r="F84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H84" t="s">
         <v>279</v>
@@ -33592,100 +33082,100 @@
         <v>0.4004</v>
       </c>
       <c r="K86">
-        <v>0.3884</v>
+        <v>0.3718</v>
       </c>
       <c r="L86">
-        <v>0.2928</v>
+        <v>0.2574</v>
       </c>
       <c r="M86">
-        <v>0.3385</v>
+        <v>0.2725</v>
       </c>
       <c r="N86">
-        <v>0.3885</v>
+        <v>0.2861</v>
       </c>
       <c r="O86">
-        <v>0.3993</v>
+        <v>0.2575</v>
       </c>
       <c r="P86">
-        <v>0.4102</v>
+        <v>0.2289</v>
       </c>
       <c r="Q86">
-        <v>0.4214</v>
+        <v>0.2003</v>
       </c>
       <c r="R86">
-        <v>0.4329</v>
+        <v>0.1717</v>
       </c>
       <c r="S86">
-        <v>0.4446</v>
+        <v>0.1431</v>
       </c>
       <c r="T86">
-        <v>0.4567</v>
+        <v>0.1144</v>
       </c>
       <c r="U86">
-        <v>0.4688</v>
+        <v>0.0858</v>
       </c>
       <c r="V86">
-        <v>0.4814</v>
+        <v>0.0572</v>
       </c>
       <c r="W86">
-        <v>0.4942</v>
+        <v>0.0286</v>
       </c>
       <c r="X86">
-        <v>0.5072</v>
+        <v>0</v>
       </c>
       <c r="Y86">
-        <v>0.5205</v>
+        <v>0</v>
       </c>
       <c r="Z86">
-        <v>0.5341</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.5481</v>
+        <v>0</v>
       </c>
       <c r="AB86">
-        <v>0.5622</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>0.5766</v>
+        <v>0</v>
       </c>
       <c r="AD86">
-        <v>0.5915</v>
+        <v>0</v>
       </c>
       <c r="AE86">
-        <v>0.6065</v>
+        <v>0</v>
       </c>
       <c r="AF86">
-        <v>0.6219</v>
+        <v>0</v>
       </c>
       <c r="AG86">
-        <v>0.6375</v>
+        <v>0</v>
       </c>
       <c r="AH86">
-        <v>0.6535</v>
+        <v>0</v>
       </c>
       <c r="AI86">
-        <v>0.6698</v>
+        <v>0</v>
       </c>
       <c r="AJ86">
-        <v>0.6865</v>
+        <v>0</v>
       </c>
       <c r="AK86">
-        <v>0.7034</v>
+        <v>0</v>
       </c>
       <c r="AL86">
-        <v>0.7207</v>
+        <v>0</v>
       </c>
       <c r="AM86">
-        <v>0.7382</v>
+        <v>0</v>
       </c>
       <c r="AN86">
-        <v>0.7561</v>
+        <v>0</v>
       </c>
       <c r="AO86">
-        <v>0.7743</v>
+        <v>0</v>
       </c>
       <c r="AP86">
-        <v>0.793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:43">
@@ -33705,10 +33195,10 @@
         <v>260</v>
       </c>
       <c r="F87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H87" t="s">
         <v>278</v>
@@ -33833,10 +33323,10 @@
         <v>261</v>
       </c>
       <c r="F88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H88" t="s">
         <v>279</v>
@@ -33961,10 +33451,10 @@
         <v>263</v>
       </c>
       <c r="F89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -34027,13 +33517,13 @@
         <v>260</v>
       </c>
       <c r="F92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H92" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -34155,10 +33645,10 @@
         <v>261</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H93" t="s">
         <v>279</v>
@@ -34283,10 +33773,10 @@
         <v>263</v>
       </c>
       <c r="F94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G94" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -34349,13 +33839,13 @@
         <v>260</v>
       </c>
       <c r="F97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H97" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -34477,10 +33967,10 @@
         <v>261</v>
       </c>
       <c r="F98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H98" t="s">
         <v>279</v>
@@ -34605,10 +34095,10 @@
         <v>263</v>
       </c>
       <c r="F99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -34671,13 +34161,13 @@
         <v>260</v>
       </c>
       <c r="F102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H102" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -34782,7 +34272,7 @@
         <v>633.7984</v>
       </c>
       <c r="AQ102" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:43">
@@ -34802,10 +34292,10 @@
         <v>261</v>
       </c>
       <c r="F103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H103" t="s">
         <v>279</v>
@@ -34930,10 +34420,10 @@
         <v>263</v>
       </c>
       <c r="F104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -34996,10 +34486,10 @@
         <v>260</v>
       </c>
       <c r="F107" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G107" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H107" t="s">
         <v>278</v>
@@ -35124,10 +34614,10 @@
         <v>261</v>
       </c>
       <c r="F108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H108" t="s">
         <v>279</v>
@@ -35252,10 +34742,10 @@
         <v>263</v>
       </c>
       <c r="F109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H109" t="s">
         <v>279</v>
@@ -35406,100 +34896,100 @@
         <v>0.3311</v>
       </c>
       <c r="K111">
-        <v>0.3383</v>
+        <v>0.1712</v>
       </c>
       <c r="L111">
-        <v>0.2551</v>
+        <v>0.1124</v>
       </c>
       <c r="M111">
-        <v>0.2949</v>
+        <v>0.1112</v>
       </c>
       <c r="N111">
-        <v>0.3385</v>
+        <v>0.1071</v>
       </c>
       <c r="O111">
-        <v>0.3478</v>
+        <v>0.0857</v>
       </c>
       <c r="P111">
-        <v>0.3574</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="Q111">
-        <v>0.3671</v>
+        <v>0.0428</v>
       </c>
       <c r="R111">
-        <v>0.3772</v>
+        <v>0.0214</v>
       </c>
       <c r="S111">
-        <v>0.3874</v>
+        <v>0</v>
       </c>
       <c r="T111">
-        <v>0.3978</v>
+        <v>0</v>
       </c>
       <c r="U111">
-        <v>0.4085</v>
+        <v>0</v>
       </c>
       <c r="V111">
-        <v>0.4193</v>
+        <v>0</v>
       </c>
       <c r="W111">
-        <v>0.4305</v>
+        <v>0</v>
       </c>
       <c r="X111">
-        <v>0.4418</v>
+        <v>0</v>
       </c>
       <c r="Y111">
-        <v>0.4535</v>
+        <v>0</v>
       </c>
       <c r="Z111">
-        <v>0.4653</v>
+        <v>0</v>
       </c>
       <c r="AA111">
-        <v>0.4774</v>
+        <v>0</v>
       </c>
       <c r="AB111">
-        <v>0.4898</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.5024</v>
+        <v>0</v>
       </c>
       <c r="AD111">
-        <v>0.5152</v>
+        <v>0</v>
       </c>
       <c r="AE111">
-        <v>0.5284</v>
+        <v>0</v>
       </c>
       <c r="AF111">
-        <v>0.5417</v>
+        <v>0</v>
       </c>
       <c r="AG111">
-        <v>0.5554</v>
+        <v>0</v>
       </c>
       <c r="AH111">
-        <v>0.5693</v>
+        <v>0</v>
       </c>
       <c r="AI111">
-        <v>0.5835</v>
+        <v>0</v>
       </c>
       <c r="AJ111">
-        <v>0.598</v>
+        <v>0</v>
       </c>
       <c r="AK111">
-        <v>0.6128</v>
+        <v>0</v>
       </c>
       <c r="AL111">
-        <v>0.6278</v>
+        <v>0</v>
       </c>
       <c r="AM111">
-        <v>0.6431</v>
+        <v>0</v>
       </c>
       <c r="AN111">
-        <v>0.6587</v>
+        <v>0</v>
       </c>
       <c r="AO111">
-        <v>0.6746</v>
+        <v>0</v>
       </c>
       <c r="AP111">
-        <v>0.6908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:43">
@@ -35519,10 +35009,10 @@
         <v>260</v>
       </c>
       <c r="F112" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G112" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H112" t="s">
         <v>278</v>
@@ -35647,10 +35137,10 @@
         <v>261</v>
       </c>
       <c r="F113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H113" t="s">
         <v>279</v>
@@ -35775,10 +35265,10 @@
         <v>263</v>
       </c>
       <c r="F114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H114" t="s">
         <v>279</v>
@@ -35941,88 +35431,88 @@
         <v>0.1997</v>
       </c>
       <c r="O116">
-        <v>0.1739</v>
+        <v>0.1597</v>
       </c>
       <c r="P116">
-        <v>0.1787</v>
+        <v>0.1198</v>
       </c>
       <c r="Q116">
-        <v>0.1836</v>
+        <v>0.0799</v>
       </c>
       <c r="R116">
-        <v>0.1886</v>
+        <v>0.0399</v>
       </c>
       <c r="S116">
-        <v>0.1937</v>
+        <v>0</v>
       </c>
       <c r="T116">
-        <v>0.1989</v>
+        <v>0</v>
       </c>
       <c r="U116">
-        <v>0.2042</v>
+        <v>0</v>
       </c>
       <c r="V116">
-        <v>0.2097</v>
+        <v>0</v>
       </c>
       <c r="W116">
-        <v>0.2153</v>
+        <v>0</v>
       </c>
       <c r="X116">
-        <v>0.2209</v>
+        <v>0</v>
       </c>
       <c r="Y116">
-        <v>0.2267</v>
+        <v>0</v>
       </c>
       <c r="Z116">
-        <v>0.2326</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.2387</v>
+        <v>0</v>
       </c>
       <c r="AB116">
-        <v>0.2449</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.2512</v>
+        <v>0</v>
       </c>
       <c r="AD116">
-        <v>0.2576</v>
+        <v>0</v>
       </c>
       <c r="AE116">
-        <v>0.2642</v>
+        <v>0</v>
       </c>
       <c r="AF116">
-        <v>0.2709</v>
+        <v>0</v>
       </c>
       <c r="AG116">
-        <v>0.2777</v>
+        <v>0</v>
       </c>
       <c r="AH116">
-        <v>0.2847</v>
+        <v>0</v>
       </c>
       <c r="AI116">
-        <v>0.2918</v>
+        <v>0</v>
       </c>
       <c r="AJ116">
-        <v>0.299</v>
+        <v>0</v>
       </c>
       <c r="AK116">
-        <v>0.3064</v>
+        <v>0</v>
       </c>
       <c r="AL116">
-        <v>0.3139</v>
+        <v>0</v>
       </c>
       <c r="AM116">
-        <v>0.3215</v>
+        <v>0</v>
       </c>
       <c r="AN116">
-        <v>0.3294</v>
+        <v>0</v>
       </c>
       <c r="AO116">
-        <v>0.3373</v>
+        <v>0</v>
       </c>
       <c r="AP116">
-        <v>0.3454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:42">
@@ -36042,13 +35532,13 @@
         <v>260</v>
       </c>
       <c r="F117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -36170,10 +35660,10 @@
         <v>261</v>
       </c>
       <c r="F118" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G118" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H118" t="s">
         <v>279</v>
@@ -36298,10 +35788,10 @@
         <v>263</v>
       </c>
       <c r="F119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G119" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -36364,13 +35854,13 @@
         <v>260</v>
       </c>
       <c r="F122" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G122" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H122" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -36492,10 +35982,10 @@
         <v>261</v>
       </c>
       <c r="F123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H123" t="s">
         <v>279</v>
@@ -36620,10 +36110,10 @@
         <v>263</v>
       </c>
       <c r="F124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -36686,13 +36176,13 @@
         <v>260</v>
       </c>
       <c r="F127" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G127" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H127" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -36814,10 +36304,10 @@
         <v>261</v>
       </c>
       <c r="F128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H128" t="s">
         <v>279</v>
@@ -36942,10 +36432,10 @@
         <v>263</v>
       </c>
       <c r="F129" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G129" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -37008,7 +36498,7 @@
         <v>260</v>
       </c>
       <c r="G132" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H132" t="s">
         <v>277</v>
@@ -37034,10 +36524,10 @@
         <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G133" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H133" t="s">
         <v>277</v>
@@ -37063,10 +36553,10 @@
         <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H134" t="s">
         <v>277</v>
@@ -37132,7 +36622,7 @@
         <v>260</v>
       </c>
       <c r="G137" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H137" t="s">
         <v>277</v>
@@ -37158,10 +36648,10 @@
         <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G138" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H138" t="s">
         <v>277</v>
@@ -37187,10 +36677,10 @@
         <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G139" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H139" t="s">
         <v>277</v>
@@ -37256,7 +36746,7 @@
         <v>260</v>
       </c>
       <c r="G142" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H142" t="s">
         <v>277</v>
@@ -37282,10 +36772,10 @@
         <v>261</v>
       </c>
       <c r="F143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G143" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H143" t="s">
         <v>278</v>
@@ -37393,7 +36883,7 @@
         <v>20.06</v>
       </c>
       <c r="AQ143" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144" spans="1:43">
@@ -37413,10 +36903,10 @@
         <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H144" t="s">
         <v>277</v>
@@ -37482,10 +36972,10 @@
         <v>260</v>
       </c>
       <c r="F147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H147" t="s">
         <v>278</v>
@@ -37610,10 +37100,10 @@
         <v>261</v>
       </c>
       <c r="F148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H148" t="s">
         <v>279</v>
@@ -37738,10 +37228,10 @@
         <v>263</v>
       </c>
       <c r="F149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H149" t="s">
         <v>279</v>
@@ -37892,100 +37382,100 @@
         <v>1.8685</v>
       </c>
       <c r="K151">
-        <v>1.8165</v>
+        <v>1.7751</v>
       </c>
       <c r="L151">
-        <v>1.7409</v>
+        <v>1.6816</v>
       </c>
       <c r="M151">
-        <v>1.8098</v>
+        <v>1.5882</v>
       </c>
       <c r="N151">
-        <v>1.8778</v>
+        <v>1.4948</v>
       </c>
       <c r="O151">
-        <v>1.935</v>
+        <v>1.4014</v>
       </c>
       <c r="P151">
-        <v>1.9939</v>
+        <v>1.3079</v>
       </c>
       <c r="Q151">
-        <v>2.0546</v>
+        <v>1.2145</v>
       </c>
       <c r="R151">
-        <v>2.1172</v>
+        <v>1.1211</v>
       </c>
       <c r="S151">
-        <v>2.1817</v>
+        <v>1.0277</v>
       </c>
       <c r="T151">
-        <v>2.2481</v>
+        <v>0.9342</v>
       </c>
       <c r="U151">
-        <v>2.3165</v>
+        <v>0.8408</v>
       </c>
       <c r="V151">
-        <v>2.3871</v>
+        <v>0.7474</v>
       </c>
       <c r="W151">
-        <v>2.4597</v>
+        <v>0.654</v>
       </c>
       <c r="X151">
-        <v>2.5346</v>
+        <v>0.5605</v>
       </c>
       <c r="Y151">
-        <v>2.6118</v>
+        <v>0.4671</v>
       </c>
       <c r="Z151">
-        <v>2.6914</v>
+        <v>0.3737</v>
       </c>
       <c r="AA151">
-        <v>2.7733</v>
+        <v>0.2803</v>
       </c>
       <c r="AB151">
-        <v>2.8578</v>
+        <v>0.1868</v>
       </c>
       <c r="AC151">
-        <v>2.9447</v>
+        <v>0.0934</v>
       </c>
       <c r="AD151">
-        <v>3.0344</v>
+        <v>0</v>
       </c>
       <c r="AE151">
-        <v>3.1268</v>
+        <v>0</v>
       </c>
       <c r="AF151">
-        <v>3.222</v>
+        <v>0</v>
       </c>
       <c r="AG151">
-        <v>3.3202</v>
+        <v>0</v>
       </c>
       <c r="AH151">
-        <v>3.4212</v>
+        <v>0</v>
       </c>
       <c r="AI151">
-        <v>3.5254</v>
+        <v>0</v>
       </c>
       <c r="AJ151">
-        <v>3.6328</v>
+        <v>0</v>
       </c>
       <c r="AK151">
-        <v>3.7434</v>
+        <v>0</v>
       </c>
       <c r="AL151">
-        <v>3.8574</v>
+        <v>0</v>
       </c>
       <c r="AM151">
-        <v>3.9748</v>
+        <v>0</v>
       </c>
       <c r="AN151">
-        <v>4.0958</v>
+        <v>0</v>
       </c>
       <c r="AO151">
-        <v>4.2206</v>
+        <v>0</v>
       </c>
       <c r="AP151">
-        <v>4.3491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:42">
@@ -38005,10 +37495,10 @@
         <v>260</v>
       </c>
       <c r="F152" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G152" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H152" t="s">
         <v>278</v>
@@ -38133,10 +37623,10 @@
         <v>261</v>
       </c>
       <c r="F153" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G153" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H153" t="s">
         <v>279</v>
@@ -38261,10 +37751,10 @@
         <v>263</v>
       </c>
       <c r="F154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -38327,13 +37817,13 @@
         <v>260</v>
       </c>
       <c r="F157" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G157" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H157" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -38455,10 +37945,10 @@
         <v>261</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G158" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H158" t="s">
         <v>279</v>
@@ -38583,10 +38073,10 @@
         <v>263</v>
       </c>
       <c r="F159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -38649,13 +38139,13 @@
         <v>260</v>
       </c>
       <c r="F162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H162" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -38777,10 +38267,10 @@
         <v>261</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H163" t="s">
         <v>279</v>
@@ -38905,10 +38395,10 @@
         <v>263</v>
       </c>
       <c r="F164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -38971,10 +38461,10 @@
         <v>260</v>
       </c>
       <c r="F167" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G167" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H167" t="s">
         <v>278</v>
@@ -39099,10 +38589,10 @@
         <v>261</v>
       </c>
       <c r="F168" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G168" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H168" t="s">
         <v>279</v>
@@ -39227,10 +38717,10 @@
         <v>263</v>
       </c>
       <c r="F169" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G169" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -39293,10 +38783,10 @@
         <v>260</v>
       </c>
       <c r="F172" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G172" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H172" t="s">
         <v>278</v>
@@ -39421,10 +38911,10 @@
         <v>261</v>
       </c>
       <c r="F173" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G173" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H173" t="s">
         <v>279</v>
@@ -39549,10 +39039,10 @@
         <v>263</v>
       </c>
       <c r="F174" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G174" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H174" t="s">
         <v>279</v>
@@ -39706,97 +39196,97 @@
         <v>2.098</v>
       </c>
       <c r="L176">
-        <v>1.9991</v>
+        <v>1.9746</v>
       </c>
       <c r="M176">
-        <v>2.0782</v>
+        <v>1.8512</v>
       </c>
       <c r="N176">
-        <v>2.1563</v>
+        <v>1.7278</v>
       </c>
       <c r="O176">
-        <v>2.2219</v>
+        <v>1.6043</v>
       </c>
       <c r="P176">
-        <v>2.2896</v>
+        <v>1.4809</v>
       </c>
       <c r="Q176">
-        <v>2.3593</v>
+        <v>1.3575</v>
       </c>
       <c r="R176">
-        <v>2.4311</v>
+        <v>1.2341</v>
       </c>
       <c r="S176">
-        <v>2.5052</v>
+        <v>1.1107</v>
       </c>
       <c r="T176">
-        <v>2.5814</v>
+        <v>0.9873</v>
       </c>
       <c r="U176">
-        <v>2.66</v>
+        <v>0.8639</v>
       </c>
       <c r="V176">
-        <v>2.741</v>
+        <v>0.7405</v>
       </c>
       <c r="W176">
-        <v>2.8245</v>
+        <v>0.6171</v>
       </c>
       <c r="X176">
-        <v>2.9105</v>
+        <v>0.4936</v>
       </c>
       <c r="Y176">
-        <v>2.9991</v>
+        <v>0.3702</v>
       </c>
       <c r="Z176">
-        <v>3.0905</v>
+        <v>0.2468</v>
       </c>
       <c r="AA176">
-        <v>3.1846</v>
+        <v>0.1234</v>
       </c>
       <c r="AB176">
-        <v>3.2815</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>3.3815</v>
+        <v>0</v>
       </c>
       <c r="AD176">
-        <v>3.4844</v>
+        <v>0</v>
       </c>
       <c r="AE176">
-        <v>3.5905</v>
+        <v>0</v>
       </c>
       <c r="AF176">
-        <v>3.6998</v>
+        <v>0</v>
       </c>
       <c r="AG176">
-        <v>3.8125</v>
+        <v>0</v>
       </c>
       <c r="AH176">
-        <v>3.9286</v>
+        <v>0</v>
       </c>
       <c r="AI176">
-        <v>4.0482</v>
+        <v>0</v>
       </c>
       <c r="AJ176">
-        <v>4.1715</v>
+        <v>0</v>
       </c>
       <c r="AK176">
-        <v>4.2985</v>
+        <v>0</v>
       </c>
       <c r="AL176">
-        <v>4.4294</v>
+        <v>0</v>
       </c>
       <c r="AM176">
-        <v>4.5643</v>
+        <v>0</v>
       </c>
       <c r="AN176">
-        <v>4.7033</v>
+        <v>0</v>
       </c>
       <c r="AO176">
-        <v>4.8465</v>
+        <v>0</v>
       </c>
       <c r="AP176">
-        <v>4.994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:43">
@@ -39816,10 +39306,10 @@
         <v>260</v>
       </c>
       <c r="F177" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G177" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H177" t="s">
         <v>278</v>
@@ -39944,10 +39434,10 @@
         <v>261</v>
       </c>
       <c r="F178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H178" t="s">
         <v>279</v>
@@ -40072,10 +39562,10 @@
         <v>263</v>
       </c>
       <c r="F179" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G179" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H179" t="s">
         <v>279</v>
@@ -40232,94 +39722,94 @@
         <v>1.0451</v>
       </c>
       <c r="M181">
-        <v>1.0391</v>
+        <v>0.9798</v>
       </c>
       <c r="N181">
-        <v>1.0781</v>
+        <v>0.9145</v>
       </c>
       <c r="O181">
-        <v>1.111</v>
+        <v>0.8492</v>
       </c>
       <c r="P181">
-        <v>1.1448</v>
+        <v>0.7838000000000001</v>
       </c>
       <c r="Q181">
-        <v>1.1797</v>
+        <v>0.7185</v>
       </c>
       <c r="R181">
-        <v>1.2156</v>
+        <v>0.6532</v>
       </c>
       <c r="S181">
-        <v>1.2526</v>
+        <v>0.5879</v>
       </c>
       <c r="T181">
-        <v>1.2907</v>
+        <v>0.5226</v>
       </c>
       <c r="U181">
-        <v>1.33</v>
+        <v>0.4572</v>
       </c>
       <c r="V181">
-        <v>1.3705</v>
+        <v>0.3919</v>
       </c>
       <c r="W181">
-        <v>1.4122</v>
+        <v>0.3266</v>
       </c>
       <c r="X181">
-        <v>1.4553</v>
+        <v>0.2613</v>
       </c>
       <c r="Y181">
-        <v>1.4996</v>
+        <v>0.196</v>
       </c>
       <c r="Z181">
-        <v>1.5452</v>
+        <v>0.1306</v>
       </c>
       <c r="AA181">
-        <v>1.5923</v>
+        <v>0.0653</v>
       </c>
       <c r="AB181">
-        <v>1.6408</v>
+        <v>0</v>
       </c>
       <c r="AC181">
-        <v>1.6907</v>
+        <v>0</v>
       </c>
       <c r="AD181">
-        <v>1.7422</v>
+        <v>0</v>
       </c>
       <c r="AE181">
-        <v>1.7953</v>
+        <v>0</v>
       </c>
       <c r="AF181">
-        <v>1.8499</v>
+        <v>0</v>
       </c>
       <c r="AG181">
-        <v>1.9063</v>
+        <v>0</v>
       </c>
       <c r="AH181">
-        <v>1.9643</v>
+        <v>0</v>
       </c>
       <c r="AI181">
-        <v>2.0241</v>
+        <v>0</v>
       </c>
       <c r="AJ181">
-        <v>2.0858</v>
+        <v>0</v>
       </c>
       <c r="AK181">
-        <v>2.1493</v>
+        <v>0</v>
       </c>
       <c r="AL181">
-        <v>2.2147</v>
+        <v>0</v>
       </c>
       <c r="AM181">
-        <v>2.2822</v>
+        <v>0</v>
       </c>
       <c r="AN181">
-        <v>2.3516</v>
+        <v>0</v>
       </c>
       <c r="AO181">
-        <v>2.4233</v>
+        <v>0</v>
       </c>
       <c r="AP181">
-        <v>2.497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:43">
@@ -40339,10 +39829,10 @@
         <v>260</v>
       </c>
       <c r="F182" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G182" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H182" t="s">
         <v>278</v>
@@ -40467,10 +39957,10 @@
         <v>261</v>
       </c>
       <c r="F183" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G183" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H183" t="s">
         <v>279</v>
@@ -40595,10 +40085,10 @@
         <v>263</v>
       </c>
       <c r="F184" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G184" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -40661,13 +40151,13 @@
         <v>260</v>
       </c>
       <c r="F187" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G187" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H187" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -40772,7 +40262,7 @@
         <v>1561.9251</v>
       </c>
       <c r="AQ187" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="188" spans="1:43">
@@ -40792,10 +40282,10 @@
         <v>261</v>
       </c>
       <c r="F188" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G188" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H188" t="s">
         <v>279</v>
@@ -40920,10 +40410,10 @@
         <v>263</v>
       </c>
       <c r="F189" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G189" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -40986,10 +40476,10 @@
         <v>260</v>
       </c>
       <c r="F192" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G192" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H192" t="s">
         <v>278</v>
@@ -41114,10 +40604,10 @@
         <v>261</v>
       </c>
       <c r="F193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H193" t="s">
         <v>279</v>
@@ -41242,10 +40732,10 @@
         <v>263</v>
       </c>
       <c r="F194" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G194" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -41308,10 +40798,10 @@
         <v>260</v>
       </c>
       <c r="F197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G197" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H197" t="s">
         <v>278</v>
@@ -41436,10 +40926,10 @@
         <v>261</v>
       </c>
       <c r="F198" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G198" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H198" t="s">
         <v>279</v>
@@ -41564,10 +41054,10 @@
         <v>263</v>
       </c>
       <c r="F199" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G199" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -41771,7 +41261,7 @@
         <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -41794,7 +41284,7 @@
         <v>266</v>
       </c>
       <c r="G3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -41817,7 +41307,7 @@
         <v>264</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -41840,7 +41330,7 @@
         <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -41863,7 +41353,7 @@
         <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -41886,7 +41376,7 @@
         <v>266</v>
       </c>
       <c r="G7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -41909,7 +41399,7 @@
         <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -41932,7 +41422,7 @@
         <v>266</v>
       </c>
       <c r="G9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -41955,7 +41445,7 @@
         <v>264</v>
       </c>
       <c r="G10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -41978,7 +41468,7 @@
         <v>266</v>
       </c>
       <c r="G11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -42001,7 +41491,7 @@
         <v>264</v>
       </c>
       <c r="G12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -42024,7 +41514,7 @@
         <v>266</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -42047,7 +41537,7 @@
         <v>264</v>
       </c>
       <c r="G14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -42070,7 +41560,7 @@
         <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -42093,7 +41583,7 @@
         <v>264</v>
       </c>
       <c r="G16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -42116,7 +41606,7 @@
         <v>266</v>
       </c>
       <c r="G17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -42139,7 +41629,7 @@
         <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -42162,7 +41652,7 @@
         <v>266</v>
       </c>
       <c r="G19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -42183,7 +41673,7 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -42192,7 +41682,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -42305,22 +41795,22 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s">
         <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
         <v>279</v>
@@ -42427,22 +41917,22 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
         <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G3" t="s">
         <v>279</v>
@@ -42549,22 +42039,22 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
         <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G4" t="s">
         <v>279</v>
@@ -42671,22 +42161,22 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
         <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" t="s">
         <v>279</v>
@@ -42793,22 +42283,22 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
         <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G6" t="s">
         <v>279</v>
@@ -42915,22 +42405,22 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
         <v>261</v>
       </c>
       <c r="F7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G7" t="s">
         <v>279</v>
@@ -43037,19 +42527,19 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" t="s">
         <v>330</v>
-      </c>
-      <c r="E8" t="s">
-        <v>331</v>
       </c>
       <c r="G8" t="s">
         <v>278</v>
@@ -43156,13 +42646,13 @@
     </row>
     <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E9" t="s">
         <v>264</v>
@@ -43272,13 +42762,13 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E10" t="s">
         <v>266</v>
@@ -43388,16 +42878,16 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G11" t="s">
         <v>279</v>
@@ -43504,22 +42994,22 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
         <v>125</v>
       </c>
       <c r="C12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" t="s">
         <v>328</v>
-      </c>
-      <c r="D12" t="s">
-        <v>329</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G12" t="s">
         <v>279</v>
@@ -43626,22 +43116,22 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
       </c>
       <c r="C13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" t="s">
         <v>328</v>
-      </c>
-      <c r="D13" t="s">
-        <v>329</v>
       </c>
       <c r="E13" t="s">
         <v>266</v>
       </c>
       <c r="F13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G13" t="s">
         <v>279</v>
@@ -43748,22 +43238,22 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
         <v>125</v>
       </c>
       <c r="C14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" t="s">
         <v>328</v>
       </c>
-      <c r="D14" t="s">
-        <v>329</v>
-      </c>
       <c r="E14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G14" t="s">
         <v>279</v>
@@ -43870,22 +43360,22 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" t="s">
         <v>125</v>
       </c>
       <c r="C15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" t="s">
         <v>328</v>
-      </c>
-      <c r="D15" t="s">
-        <v>329</v>
       </c>
       <c r="E15" t="s">
         <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G15" t="s">
         <v>279</v>
@@ -43992,22 +43482,22 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E16" t="s">
         <v>264</v>
       </c>
       <c r="F16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G16" t="s">
         <v>279</v>
@@ -44114,22 +43604,22 @@
     </row>
     <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
         <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E17" t="s">
         <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G17" t="s">
         <v>279</v>
@@ -44236,22 +43726,22 @@
     </row>
     <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
         <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" t="s">
         <v>264</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G18" t="s">
         <v>279</v>
@@ -44358,22 +43848,22 @@
     </row>
     <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
         <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E19" t="s">
         <v>264</v>
       </c>
       <c r="F19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G19" t="s">
         <v>279</v>
@@ -44480,22 +43970,22 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E20" t="s">
         <v>264</v>
       </c>
       <c r="F20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G20" t="s">
         <v>279</v>
@@ -44602,22 +44092,22 @@
     </row>
     <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G21" t="s">
         <v>279</v>
@@ -44724,22 +44214,22 @@
     </row>
     <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B22" t="s">
         <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s">
         <v>279</v>
@@ -44846,22 +44336,22 @@
     </row>
     <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B23" t="s">
         <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G23" t="s">
         <v>279</v>
@@ -44968,22 +44458,22 @@
     </row>
     <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B24" t="s">
         <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G24" t="s">
         <v>279</v>
@@ -45090,22 +44580,22 @@
     </row>
     <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
         <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G25" t="s">
         <v>279</v>
@@ -45213,238 +44703,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BAD73B84EC2FBA4AB6031CFB79C3D0E0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="371947e8e2760f0f8e8f59c32e4ad2a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4f98862-adfd-4d9c-a945-852f80f0eb51" xmlns:ns3="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a059f82d0b353b49693c069f8347eedf" ns2:_="" ns3:_="">
-    <xsd:import namespace="c4f98862-adfd-4d9c-a945-852f80f0eb51"/>
-    <xsd:import namespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4f98862-adfd-4d9c-a945-852f80f0eb51" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B93B83E1-A5D2-4BB6-80E0-A935C6379E94}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FA09668-3402-47D9-A350-3405A2E6B730}"/>
 </file>